--- a/Examples/4 Colors.xlsx
+++ b/Examples/4 Colors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_Program\Gaussian_Toolkit\Energy Diagram Release\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_Program\Draw_Energy_Diagram\Energy Diagram Plotter CDXML 3.4 (Packed Executable with Python Environment)\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7991DEE-DAE3-41CE-B4AC-F0C9C58D5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12222" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,42 +63,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magenta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arbitraty Color (#D185FF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>k: Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b: Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g: Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r: Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c: Cyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m: Magenta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y: Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#XXXXXX: Arbitraty Color (#D185FF)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B1">
         <v>0</v>
       </c>
@@ -443,7 +444,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +458,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -471,7 +472,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -485,7 +486,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -499,7 +500,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -513,7 +514,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -527,7 +528,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -541,7 +542,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -552,39 +553,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
